--- a/backend/default_images_and_spreadsheets/ItemsSample.xlsx
+++ b/backend/default_images_and_spreadsheets/ItemsSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Python\PycharmProjects\belmarket\belmarket\default_images_and_spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Python\PycharmProjects\belmarket\belmarket\backend\default_images_and_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58B121F-C41B-45A5-ABA9-A75357F60724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C66B12-3E92-4B85-9E11-1110E35D217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5412" yWindow="2988" windowWidth="12600" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Товары" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>Milk.jfif</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Just some beef</t>
+  </si>
+  <si>
+    <t>Test description for milk</t>
+  </si>
+  <si>
+    <t>Yoooo….. Ghurt.</t>
   </si>
 </sst>
 </file>
@@ -427,18 +439,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="13.109375" customWidth="1"/>
+    <col min="2" max="5" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,15 +458,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -463,8 +477,9 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -472,16 +487,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>600</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -489,16 +507,19 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -506,9 +527,12 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>50</v>
       </c>
     </row>

--- a/backend/default_images_and_spreadsheets/ItemsSample.xlsx
+++ b/backend/default_images_and_spreadsheets/ItemsSample.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\Python\PycharmProjects\belmarket\belmarket\backend\default_images_and_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C66B12-3E92-4B85-9E11-1110E35D217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AF2E79-D3BD-40F8-A2B2-C19FA225D0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Товары" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="136">
   <si>
     <t>name</t>
   </si>
@@ -77,6 +88,357 @@
   </si>
   <si>
     <t>Yoooo….. Ghurt.</t>
+  </si>
+  <si>
+    <t>Chicken breast</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>CHICKEN-1</t>
+  </si>
+  <si>
+    <t>Chicken-breast.jpg</t>
+  </si>
+  <si>
+    <t>Yogurt.jpg</t>
+  </si>
+  <si>
+    <t>Chicken legs</t>
+  </si>
+  <si>
+    <t>CHICKEN-2</t>
+  </si>
+  <si>
+    <t>Chicken-legs.jpg</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>Pork belly</t>
+  </si>
+  <si>
+    <t>Pork</t>
+  </si>
+  <si>
+    <t>PORK-1</t>
+  </si>
+  <si>
+    <t>Pork ham</t>
+  </si>
+  <si>
+    <t>PORK-2</t>
+  </si>
+  <si>
+    <t>Swiss cheese</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Amazing swiss cheese right from the farmland</t>
+  </si>
+  <si>
+    <t>CHEESE-1</t>
+  </si>
+  <si>
+    <t>Austrian cheese</t>
+  </si>
+  <si>
+    <t>CHEESE-2</t>
+  </si>
+  <si>
+    <t>Lard 99%</t>
+  </si>
+  <si>
+    <t>Lard</t>
+  </si>
+  <si>
+    <t>Natural lard w/o fillers and substitutions</t>
+  </si>
+  <si>
+    <t>LARD-1</t>
+  </si>
+  <si>
+    <t>Vanilla Milkshake</t>
+  </si>
+  <si>
+    <t>Milkshakes</t>
+  </si>
+  <si>
+    <t>Milkshake with vanilla taste</t>
+  </si>
+  <si>
+    <t>Strawberry Milkshake</t>
+  </si>
+  <si>
+    <t>Milkshake with strawberry taste</t>
+  </si>
+  <si>
+    <t>MILKSHAKE-1</t>
+  </si>
+  <si>
+    <t>MILKSHAKE-2</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Just tomatoes</t>
+  </si>
+  <si>
+    <t>TOMATO-1</t>
+  </si>
+  <si>
+    <t>Cucumbers</t>
+  </si>
+  <si>
+    <t>Just cucumbers</t>
+  </si>
+  <si>
+    <t>CUCUMBER-1</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t>Just potatoes</t>
+  </si>
+  <si>
+    <t>POTATO-1</t>
+  </si>
+  <si>
+    <t>Apples</t>
+  </si>
+  <si>
+    <t>Fruits</t>
+  </si>
+  <si>
+    <t>Cool red apples</t>
+  </si>
+  <si>
+    <t>APPLE-1</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Fresh yellow bananas, washed</t>
+  </si>
+  <si>
+    <t>BANANA-1</t>
+  </si>
+  <si>
+    <t>Oranges</t>
+  </si>
+  <si>
+    <t>Big oranges</t>
+  </si>
+  <si>
+    <t>ORANGE-1</t>
+  </si>
+  <si>
+    <t>Kiwis</t>
+  </si>
+  <si>
+    <t>Just a good kiwi</t>
+  </si>
+  <si>
+    <t>KIWI-1</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Soda</t>
+  </si>
+  <si>
+    <t>Don't drink this</t>
+  </si>
+  <si>
+    <t>SODA-1</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>And this too, if you want to stay alive when you're 30</t>
+  </si>
+  <si>
+    <t>SODA-2</t>
+  </si>
+  <si>
+    <t>Japanese green tea</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Amazing tea drink to quench your thirst</t>
+  </si>
+  <si>
+    <t>TEA-1</t>
+  </si>
+  <si>
+    <t>British green tea</t>
+  </si>
+  <si>
+    <t>Classic green tea</t>
+  </si>
+  <si>
+    <t>TEA-2</t>
+  </si>
+  <si>
+    <t>Black tea</t>
+  </si>
+  <si>
+    <t>Classic black tea</t>
+  </si>
+  <si>
+    <t>TEA-3</t>
+  </si>
+  <si>
+    <t>White bread</t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t>Freshly baked white bread</t>
+  </si>
+  <si>
+    <t>BREAD-1</t>
+  </si>
+  <si>
+    <t>Brown bread</t>
+  </si>
+  <si>
+    <t>Freshly baked brown bread</t>
+  </si>
+  <si>
+    <t>BREAD-2</t>
+  </si>
+  <si>
+    <t>Sugary cookies</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Tasty sugary cookies</t>
+  </si>
+  <si>
+    <t>COOKIES-1</t>
+  </si>
+  <si>
+    <t>Almond cookies</t>
+  </si>
+  <si>
+    <t>Amazing almond cookies, I love them since my childhood</t>
+  </si>
+  <si>
+    <t>COOKIES-2</t>
+  </si>
+  <si>
+    <t>Apple pie</t>
+  </si>
+  <si>
+    <t>Pies</t>
+  </si>
+  <si>
+    <t>Just an apple pie</t>
+  </si>
+  <si>
+    <t>PIES-1</t>
+  </si>
+  <si>
+    <t>Chocolate pie</t>
+  </si>
+  <si>
+    <t>Tasty chocolate pie</t>
+  </si>
+  <si>
+    <t>PIES-2</t>
+  </si>
+  <si>
+    <t>Pork-belly.jpg</t>
+  </si>
+  <si>
+    <t>Pork-ham.jpg</t>
+  </si>
+  <si>
+    <t>Swiss-cheese.jpg</t>
+  </si>
+  <si>
+    <t>Austrian-cheese.jpg</t>
+  </si>
+  <si>
+    <t>Vanilla-Milkshake.jpg</t>
+  </si>
+  <si>
+    <t>Strawberry-Milkshake.jpg</t>
+  </si>
+  <si>
+    <t>Japanese-tea.jpg</t>
+  </si>
+  <si>
+    <t>British-tea.jpg</t>
+  </si>
+  <si>
+    <t>Black-tea.jpg</t>
+  </si>
+  <si>
+    <t>White-bread.jpg</t>
+  </si>
+  <si>
+    <t>Brown-bread.jpg</t>
+  </si>
+  <si>
+    <t>Sugary-cookies.jpg</t>
+  </si>
+  <si>
+    <t>Almond-cookies.jpg</t>
+  </si>
+  <si>
+    <t>Apple-pie.jpg</t>
+  </si>
+  <si>
+    <t>Chocolate-pie.jpg</t>
+  </si>
+  <si>
+    <t>Lard-99.jpg</t>
+  </si>
+  <si>
+    <t>Apples.jpg</t>
+  </si>
+  <si>
+    <t>Bananas.jpg</t>
+  </si>
+  <si>
+    <t>Kiwis.jpg</t>
+  </si>
+  <si>
+    <t>Oranges.jpg</t>
+  </si>
+  <si>
+    <t>Cola.jpg</t>
+  </si>
+  <si>
+    <t>Sprite.jpg</t>
+  </si>
+  <si>
+    <t>Tomatoes.jpg</t>
+  </si>
+  <si>
+    <t>Cucumbers.jpg</t>
+  </si>
+  <si>
+    <t>Potatoes.jpg</t>
   </si>
 </sst>
 </file>
@@ -132,11 +494,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -439,15 +802,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -469,7 +833,9 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -493,50 +859,684 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="2">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27">
+        <v>1.5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>